--- a/mcmaster_excel/Steel_Pan_Head_Screws_with_Internal-Tooth_Lock_Washer.xlsx
+++ b/mcmaster_excel/Steel_Pan_Head_Screws_with_Internal-Tooth_Lock_Washer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1/8"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.167"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.062"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.185"</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.013"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ASME B18.13</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>90403A832</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$15.37</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Washer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.167"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.185"</t>
+          <t>OD</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.016"</t>
+          <t>Thick.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASME B18.13</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>90403A077</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -673,7 +585,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.016"</t>
+          <t>0.013"</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -693,17 +605,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>90403A079</t>
+          <t>90403A832</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>10.26</t>
+          <t>$15.37</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -770,12 +682,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>90403A081</t>
+          <t>90403A077</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -792,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -842,12 +754,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>90403A083</t>
+          <t>90403A079</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>10.26</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -864,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -914,12 +826,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>90403A085</t>
+          <t>90403A081</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -936,7 +848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -986,12 +898,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>90403A087</t>
+          <t>90403A083</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1008,7 +920,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1018,17 +930,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>0.167"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.268"</t>
+          <t>0.185"</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1053,22 +965,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>90403A833</t>
+          <t>90403A085</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>15.41</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1080,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1090,22 +1002,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>0.167"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.268"</t>
+          <t>0.185"</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.018"</t>
+          <t>0.016"</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1125,22 +1037,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>90403A104</t>
+          <t>90403A087</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>10.08</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1152,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1177,7 +1089,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.018"</t>
+          <t>0.016"</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1197,17 +1109,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>90403A106</t>
+          <t>90403A833</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>15.41</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1224,7 +1136,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1274,12 +1186,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>90403A107</t>
+          <t>90403A104</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>10.08</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1296,7 +1208,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1346,12 +1258,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>90403A108</t>
+          <t>90403A106</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1368,7 +1280,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1418,12 +1330,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>90403A109</t>
+          <t>90403A107</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1440,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1490,12 +1402,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>90403A110</t>
+          <t>90403A108</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1512,7 +1424,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1557,17 +1469,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>90403A112</t>
+          <t>90403A109</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1584,7 +1496,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1629,17 +1541,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>90403A115</t>
+          <t>90403A110</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1656,7 +1568,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1706,12 +1618,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>90403A118</t>
+          <t>90403A112</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1728,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1778,12 +1690,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>90403A121</t>
+          <t>90403A115</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1800,7 +1712,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1810,27 +1722,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.288"</t>
+          <t>0.268"</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.021"</t>
+          <t>0.018"</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1845,22 +1757,22 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>90403A142</t>
+          <t>90403A118</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1872,7 +1784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1882,27 +1794,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.288"</t>
+          <t>0.268"</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.021"</t>
+          <t>0.018"</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1917,22 +1829,22 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>90403A144</t>
+          <t>90403A121</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1944,7 +1856,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1994,12 +1906,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>90403A145</t>
+          <t>90403A142</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2016,7 +1928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2066,12 +1978,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>90403A146</t>
+          <t>90403A144</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2088,7 +2000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2138,12 +2050,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>90403A147</t>
+          <t>90403A145</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2160,7 +2072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2210,12 +2122,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>90403A148</t>
+          <t>90403A146</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2232,7 +2144,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2282,12 +2194,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>90403A150</t>
+          <t>90403A147</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2304,7 +2216,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2354,12 +2266,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>90403A151</t>
+          <t>90403A148</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2376,7 +2288,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2426,12 +2338,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>90403A152</t>
+          <t>90403A150</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>10.93</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2448,7 +2360,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2498,12 +2410,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>90403A153</t>
+          <t>90403A151</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2520,7 +2432,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2565,17 +2477,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>90403A155</t>
+          <t>90403A152</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2592,7 +2504,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2637,17 +2549,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>90403A157</t>
+          <t>90403A153</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2664,7 +2576,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2709,17 +2621,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>90403A159</t>
+          <t>90403A155</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2736,7 +2648,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2746,22 +2658,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.338"</t>
+          <t>0.288"</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.023"</t>
+          <t>0.021"</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2781,22 +2693,22 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>90403A190</t>
+          <t>90403A157</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2808,7 +2720,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2818,22 +2730,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.338"</t>
+          <t>0.288"</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.023"</t>
+          <t>0.021"</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2853,22 +2765,22 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>90403A191</t>
+          <t>90403A159</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2880,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2930,12 +2842,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>90403A192</t>
+          <t>90403A190</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2952,7 +2864,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3002,12 +2914,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>90403A193</t>
+          <t>90403A191</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>12.26</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3024,7 +2936,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3074,12 +2986,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>90403A194</t>
+          <t>90403A192</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3096,7 +3008,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3141,17 +3053,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>90403A196</t>
+          <t>90403A193</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>12.26</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3168,7 +3080,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3213,17 +3125,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>90403A197</t>
+          <t>90403A194</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3240,7 +3152,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3290,12 +3202,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>90403A199</t>
+          <t>90403A196</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3312,7 +3224,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3362,12 +3274,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>90403A201</t>
+          <t>90403A197</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3384,7 +3296,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3394,22 +3306,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.383"</t>
+          <t>0.338"</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.024"</t>
+          <t>0.023"</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3434,17 +3346,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>90403A238</t>
+          <t>90403A199</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3456,7 +3368,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3466,22 +3378,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.383"</t>
+          <t>0.338"</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.024"</t>
+          <t>0.023"</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3506,17 +3418,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>90403A242</t>
+          <t>90403A201</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3528,7 +3440,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3578,12 +3490,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>90403A246</t>
+          <t>90403A238</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3600,7 +3512,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3625,7 +3537,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.022"</t>
+          <t>0.024"</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3645,17 +3557,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>90403A834</t>
+          <t>90403A242</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3672,7 +3584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3697,7 +3609,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.022"</t>
+          <t>0.024"</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3717,17 +3629,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>90403A835</t>
+          <t>90403A246</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>16.27</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3744,7 +3656,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3794,12 +3706,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>90403A836</t>
+          <t>90403A834</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>16.58</t>
+          <t>14.43</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3816,7 +3728,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3841,7 +3753,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.024"</t>
+          <t>0.022"</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3861,22 +3773,22 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>90403A823</t>
+          <t>90403A835</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3888,7 +3800,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3913,7 +3825,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.024"</t>
+          <t>0.022"</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3933,22 +3845,22 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>90403A827</t>
+          <t>90403A836</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>16.58</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3960,7 +3872,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4010,12 +3922,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>90403A829</t>
+          <t>90403A823</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4032,7 +3944,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4082,12 +3994,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>90403A830</t>
+          <t>90403A827</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4104,7 +4016,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4154,12 +4066,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>90403A831</t>
+          <t>90403A829</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4176,7 +4088,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4201,7 +4113,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.022"</t>
+          <t>0.024"</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4221,17 +4133,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>90403A837</t>
+          <t>90403A830</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>16.23</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4248,7 +4160,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4258,27 +4170,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.478"</t>
+          <t>0.383"</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.028"</t>
+          <t>0.024"</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4293,22 +4205,22 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>90403A535</t>
+          <t>90403A831</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4320,7 +4232,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4330,27 +4242,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.478"</t>
+          <t>0.383"</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.028"</t>
+          <t>0.022"</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4370,17 +4282,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>90403A537</t>
+          <t>90403A837</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>16.23</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4392,7 +4304,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4442,12 +4354,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>90403A538</t>
+          <t>90403A535</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4464,7 +4376,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4514,12 +4426,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>90403A540</t>
+          <t>90403A537</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4536,7 +4448,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4586,12 +4498,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>90403A551</t>
+          <t>90403A538</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4608,7 +4520,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4633,7 +4545,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.025"</t>
+          <t>0.028"</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4658,12 +4570,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>90403A838</t>
+          <t>90403A540</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>17.48</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4680,7 +4592,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4705,7 +4617,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.025"</t>
+          <t>0.028"</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4730,17 +4642,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>90403A839</t>
+          <t>90403A551</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>16.43</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4752,7 +4664,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4802,17 +4714,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>90403A841</t>
+          <t>90403A838</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>16.66</t>
+          <t>17.48</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4824,7 +4736,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4874,12 +4786,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>90403A842</t>
+          <t>90403A839</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>16.93</t>
+          <t>16.43</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -4896,7 +4808,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4906,27 +4818,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.615"</t>
+          <t>0.492"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.218"</t>
+          <t>0.175"</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.610"</t>
+          <t>0.478"</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.034"</t>
+          <t>0.025"</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>No. 4</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4946,17 +4858,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>90403A843</t>
+          <t>90403A841</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>16.66</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4968,7 +4880,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4978,27 +4890,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.615"</t>
+          <t>0.492"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.218"</t>
+          <t>0.175"</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.610"</t>
+          <t>0.478"</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.034"</t>
+          <t>0.025"</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>No. 4</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5013,22 +4925,22 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>90403A844</t>
+          <t>90403A842</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>16.93</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5040,7 +4952,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5085,17 +4997,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>90403A845</t>
+          <t>90403A843</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5112,70 +5024,214 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0.615"</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.218"</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.610"</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.034"</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>No. 4</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>90403A844</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.615"</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.218"</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.610"</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.034"</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>No. 4</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>90403A845</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>0.615"</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>0.218"</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>0.610"</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>0.034"</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>No. 4</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>ASME B18.13</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>90403A846</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>8.64</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
